--- a/biology/Botanique/Corylus_maxima/Corylus_maxima.xlsx
+++ b/biology/Botanique/Corylus_maxima/Corylus_maxima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Noisetier de Lambert (Corylus maxima) est un arbuste de la famille des bétulacées. Sa variété pourpre est plantée comme arbuste d'ornement.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Corylus lambertiana
-Selon World Checklist of Selected Plant Families (WCSP)  (2 avr. 2012)[1] :  Corylus maxima Mill. (1768)
-Noisetier tubuleux ou noisetier franc[2].</t>
+Selon World Checklist of Selected Plant Families (WCSP)  (2 avr. 2012) :  Corylus maxima Mill. (1768)
+Noisetier tubuleux ou noisetier franc.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Corylus maxima est un arbuste, les feuilles sont portées par un pétiole de 0.8 à 1.5 cm. Il produit des noisettes allongées, dans un involucre fermé, tubulaire, environ 2 fois plus long que le fruit[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Corylus maxima est un arbuste, les feuilles sont portées par un pétiole de 0.8 à 1.5 cm. Il produit des noisettes allongées, dans un involucre fermé, tubulaire, environ 2 fois plus long que le fruit.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. Maxima est spontané au sud-est de l'Europe et en Asie mineure. Il est cultivé pour les fruits et comme ornemental dans les zones tempérées de l'Europe où il est aussi subspontané[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. Maxima est spontané au sud-est de l'Europe et en Asie mineure. Il est cultivé pour les fruits et comme ornemental dans les zones tempérées de l'Europe où il est aussi subspontané.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Variété horticole</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corylus maxima purpurea est considérée comme une variété intéressante[4]. Elle est citée dans les Notes sur les végétaux cultivés en plein air au Château du Crest près Genève[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corylus maxima purpurea est considérée comme une variété intéressante. Elle est citée dans les Notes sur les végétaux cultivés en plein air au Château du Crest près Genève.
 </t>
         </is>
       </c>
